--- a/doc/soldier.xlsx
+++ b/doc/soldier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t xml:space="preserve">SoldierId</t>
   </si>
@@ -28,21 +28,15 @@
     <t xml:space="preserve">SodierName</t>
   </si>
   <si>
+    <t xml:space="preserve">SkillId</t>
+  </si>
+  <si>
     <t xml:space="preserve">SodierType</t>
   </si>
   <si>
     <t xml:space="preserve">SodierSort</t>
   </si>
   <si>
-    <t xml:space="preserve">PrefabIconName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrefabName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyCostCoe</t>
-  </si>
-  <si>
     <t xml:space="preserve">HpCoe</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t xml:space="preserve">DodCoe</t>
   </si>
   <si>
-    <t xml:space="preserve">SkillId</t>
-  </si>
-  <si>
     <t xml:space="preserve">ConsumablesId</t>
   </si>
   <si>
@@ -70,21 +61,15 @@
     <t xml:space="preserve">单位名称_table</t>
   </si>
   <si>
+    <t xml:space="preserve">技能id（格式{{0，100，[技能ID，技能使用概率（10000为100%），技能使用次数上限（0表示无上限）]，[技能ID，技能使用概率，次数上限]}，{0，100，[技能ID，技能使用概率，次数上限]，[技能ID，技能使用概率，次数上限]}}）</t>
+  </si>
+  <si>
     <t xml:space="preserve">单位类型_byte</t>
   </si>
   <si>
     <t xml:space="preserve">单位子分类_byte</t>
   </si>
   <si>
-    <t xml:space="preserve">预制件图标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预制件名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上场能量消耗系数_int</t>
-  </si>
-  <si>
     <t xml:space="preserve">生命值系数_int</t>
   </si>
   <si>
@@ -97,9 +82,6 @@
     <t xml:space="preserve">闪避倍率_int</t>
   </si>
   <si>
-    <t xml:space="preserve">技能id（格式{{0，100，[技能ID，技能使用概率（10000为100%），技能使用次数上限（0表示无上限）]，[技能ID，技能使用概率，次数上限]}，{0，100，[技能ID，技能使用概率，次数上限]，[技能ID，技能使用概率，次数上限]}}）</t>
-  </si>
-  <si>
     <t xml:space="preserve">升级物品消耗ID</t>
   </si>
   <si>
@@ -109,55 +91,37 @@
     <t xml:space="preserve">张飞</t>
   </si>
   <si>
-    <t xml:space="preserve">Soldier1012</t>
+    <t xml:space="preserve">{0,100,[10003,10000,0]}</t>
   </si>
   <si>
     <t xml:space="preserve">吕布</t>
   </si>
   <si>
-    <t xml:space="preserve">Soldier0000</t>
+    <t xml:space="preserve">孙尚香</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0,100,[10005,10000,0]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0,100,[10002,10000,0]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关羽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华佗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0,100,[10004,10000,0]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小偷</t>
   </si>
   <si>
     <t xml:space="preserve">{0,100,[10001,10000,0]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙尚香</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier0028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0,100,[10002,10000,0]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘备</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier0113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0,100,[10003,10000,0]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关羽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier0075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0,100,[10004,10000,0]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华佗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0,100,[10005,10000,0]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小偷</t>
   </si>
 </sst>
 </file>
@@ -251,12 +215,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -498,28 +462,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="53.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="205.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,58 +518,40 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,39 +559,30 @@
         <v>1000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,19 +591,19 @@
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>1</v>
@@ -680,18 +615,9 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>3001</v>
-      </c>
-      <c r="N4" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -700,42 +626,33 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0</v>
+        <v>3002</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>3002</v>
-      </c>
-      <c r="N5" s="1" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -744,42 +661,33 @@
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>3003</v>
-      </c>
-      <c r="N6" s="1" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -788,42 +696,33 @@
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0</v>
+        <v>3004</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>3004</v>
-      </c>
-      <c r="N7" s="1" t="n">
         <v>2100</v>
       </c>
     </row>
@@ -832,42 +731,33 @@
         <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
+      <c r="E8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0</v>
+        <v>3005</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>3005</v>
-      </c>
-      <c r="N8" s="1" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -876,75 +766,87 @@
         <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="L9" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="L10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="L11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="L12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="L13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="L14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L15" s="3"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L19" s="3"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L20" s="3"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L21" s="3"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L22" s="3"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L23" s="3"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L24" s="3"/>
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/soldier.xlsx
+++ b/doc/soldier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">SoldierId</t>
   </si>
@@ -46,15 +46,6 @@
     <t xml:space="preserve">DefCoe</t>
   </si>
   <si>
-    <t xml:space="preserve">DodCoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConsumablesId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SodierCd</t>
-  </si>
-  <si>
     <t xml:space="preserve">单位ID</t>
   </si>
   <si>
@@ -77,15 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">防御力系数_int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闪避倍率_int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">升级物品消耗ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上场后使用后冷却CD</t>
   </si>
   <si>
     <t xml:space="preserve">张飞</t>
@@ -462,10 +444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,11 +459,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16381" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,49 +490,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,10 +522,10 @@
         <v>1000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
@@ -578,12 +541,6 @@
       </c>
       <c r="H3" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,10 +548,10 @@
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1</v>
@@ -610,15 +567,6 @@
       </c>
       <c r="H4" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>3001</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,10 +574,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
@@ -645,15 +593,6 @@
       </c>
       <c r="H5" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>3002</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,10 +600,10 @@
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
@@ -680,15 +619,6 @@
       </c>
       <c r="H6" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>3003</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>1200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,10 +626,10 @@
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
@@ -715,15 +645,6 @@
       </c>
       <c r="H7" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>2100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,10 +652,10 @@
         <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
@@ -750,15 +671,6 @@
       </c>
       <c r="H8" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>3005</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>1800</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,10 +678,10 @@
         <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
@@ -784,9 +696,6 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,7 +755,7 @@
       <c r="C24" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
